--- a/unit-linked(given data).xlsx
+++ b/unit-linked(given data).xlsx
@@ -805,7 +805,7 @@
   <dimension ref="B3:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1409,12 +1409,12 @@
         <v>50</v>
       </c>
       <c r="E21" s="2">
-        <f>0.005*C21</f>
-        <v>25</v>
+        <f>0.007*C21</f>
+        <v>35</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F29" si="9">(D21-E21)*0.06</f>
-        <v>1.5</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ref="G21:G29" si="10">H6</f>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>103.51777999601562</v>
+        <v>92.917779996015625</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J29" si="12">(K6-I6)*0.006/(1+0.065)</f>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="8"/>
-        <v>92.700171986431982</v>
+        <v>83.207871986431982</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -2382,7 +2382,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
